--- a/data/trans_camb/P20B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-29,98; 41,43</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-43,27; 28,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 31,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 29,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 25,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 19,91</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>30,23%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-27,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-70,96; 485,27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,75; 648,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,13; 576,82</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 28,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,36; 41,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 42,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 21,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; 24,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 29,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,25; 19,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 25,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 31,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,08; 352,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,56; 402,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,85; 548,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,74; 208,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,54; 230,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,44; 241,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; 158,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 220,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 243,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,71; 33,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 49,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 50,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,75; 34,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; 28,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 25,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 28,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; 27,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 30,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,87%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,22; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,09; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,92; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,22; 702,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,83; 663,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 895,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,02; 45,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,67; 40,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; 51,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,14; 10,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,23; 28,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,33; 23,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,13; 20,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,98; 24,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,02; 27,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,42; 58,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,11; 157,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,22; 139,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,7; 144,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,23; 157,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,36; 187,74</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,66</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 69,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; 70,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; 69,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 47,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 63,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 27,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,49; 46,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,68; 57,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 35,41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>415,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>542,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,36%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-15,34; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-47,51; 1178,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-44,21; 1044,95</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,49; 1133,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,11; 1077,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,08; 845,17</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,82; 35,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,4; 36,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,87; 17,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,04; 17,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,25; 35,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,28; 14,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,58; 18,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 28,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,85; 11,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,81%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,53%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,57; 352,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,62; 341,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,45; 161,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,85; 178,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,98; 343,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,55; 177,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,24; 143,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,16; 210,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,92; 82,36</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; 19,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; 23,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,95; 8,66</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,76; 14,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 12,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; 14,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,7; 8,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; 10,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,97; 8,13</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,97%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,15; 90,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,84; 100,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,73; 37,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,03; 67,81</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,61; 54,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,59; 66,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,33; 34,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,58; 37,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,95; 34,72</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,76; 11,89</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,33; 28,11</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,34; 29,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; 22,73</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 17,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,52; 12,4</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 13,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 16,07</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,33; 13,94</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,48%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,1%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,43%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,36; 106,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,88; 218,81</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,64; 234,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,84; 200,54</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,99; 183,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,61; 108,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,13; 91,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,73; 106,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,47; 96,11</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 12,69</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 18,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 16,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 11,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 12,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 9,98</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 9,68</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 12,17</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 10,81</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,25; 59,09</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 83,04</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 85,99</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 70,51</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 72,99</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 55,88</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 50,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 63,27</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 55,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>28,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>25,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 50,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 28,0</t>
+          <t>-41,61; 29,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,3; 46,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 29,1</t>
+          <t>5,5; 28,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 42,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 19,91</t>
+          <t>-12,13; 21,04</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,6%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>210,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>38,06%</t>
         </is>
       </c>
     </row>
@@ -791,37 +791,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-34,72; 561,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-70,96; 485,27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-70,96; 485,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,42; 1139,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 576,82</t>
+          <t>-71,94; 559,85</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,34</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>15,53</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 42,48</t>
+          <t>-3,38; 42,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 29,83</t>
+          <t>-9,87; 31,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 31,43</t>
+          <t>0,68; 32,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>80,5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 548,12</t>
+          <t>-15,24; 559,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,44; 241,2</t>
+          <t>-39,89; 252,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 243,75</t>
+          <t>-0,9; 251,91</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>27,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>17,47</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 50,94</t>
+          <t>-8,16; 50,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 25,24</t>
+          <t>-12,64; 25,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 30,59</t>
+          <t>-2,15; 30,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>215,94%</t>
+          <t>216,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>139,87%</t>
+          <t>141,59%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,92; —</t>
+          <t>-53,02; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 895,26</t>
+          <t>-15,79; 925,92</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25,54</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,92</t>
+          <t>24,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,71</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 45,12</t>
+          <t>-27,31; 34,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 51,81</t>
+          <t>-16,05; 50,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 10,17</t>
+          <t>-41,86; 8,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 23,98</t>
+          <t>-32,56; 24,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 20,1</t>
+          <t>-28,28; 10,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 27,25</t>
+          <t>-18,01; 27,8</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>194,8%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>190,09%</t>
+          <t>184,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>-40,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,68%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>-24,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>16,41%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 58,08</t>
+          <t>-77,9; 56,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,22; 139,99</t>
+          <t>-65,23; 145,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 144,14</t>
+          <t>-70,17; 69,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 187,74</t>
+          <t>-43,8; 190,79</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32,32</t>
+          <t>32,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,58</t>
+          <t>15,57</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 69,63</t>
+          <t>-10,73; 69,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 27,04</t>
+          <t>-6,7; 27,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 35,41</t>
+          <t>-3,66; 35,29</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>156,33%</t>
+          <t>156,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>157,36%</t>
+          <t>158,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>134,36%</t>
+          <t>134,33%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 1044,95</t>
+          <t>-44,13; 1043,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 845,17</t>
+          <t>-38,02; 887,48</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-42,87; 17,85</t>
+          <t>-42,88; 18,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 14,07</t>
+          <t>-24,2; 14,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 11,54</t>
+          <t>-19,73; 11,76</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-25,81%</t>
+          <t>-25,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>-21,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>-11,09%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 161,59</t>
+          <t>-72,51; 166,97</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 177,22</t>
+          <t>-80,55; 177,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 82,36</t>
+          <t>-56,55; 84,09</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-11,15</t>
+          <t>-11,41</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-4,76</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 8,66</t>
+          <t>-32,14; 8,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 14,25</t>
+          <t>-18,57; 14,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 8,13</t>
+          <t>-16,97; 8,06</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-14,5%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 37,77</t>
+          <t>-67,58; 35,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 66,82</t>
+          <t>-46,97; 66,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 34,72</t>
+          <t>-42,78; 34,0</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 29,43</t>
+          <t>-17,92; 30,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 12,4</t>
+          <t>-17,23; 13,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 13,94</t>
+          <t>-11,47; 15,4</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-22,43%</t>
+          <t>-19,06%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 234,06</t>
+          <t>-50,7; 249,68</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 108,65</t>
+          <t>-70,39; 113,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 96,11</t>
+          <t>-41,71; 103,65</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,38</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 16,68</t>
+          <t>-2,54; 16,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 9,98</t>
+          <t>-4,09; 10,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 10,81</t>
+          <t>-0,51; 10,97</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 85,99</t>
+          <t>-7,9; 87,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 55,88</t>
+          <t>-18,43; 57,51</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 55,88</t>
+          <t>-1,8; 57,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 50,92</t>
+          <t>-12,05; 53,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 41,43</t>
+          <t>-33,71; 39,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 29,69</t>
+          <t>-43,07; 27,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 46,71</t>
+          <t>14,28; 44,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 31,34</t>
+          <t>7,58; 32,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 28,94</t>
+          <t>5,64; 27,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 42,2</t>
+          <t>4,39; 41,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 25,04</t>
+          <t>-9,08; 25,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 21,04</t>
+          <t>-13,37; 21,74</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 561,24</t>
+          <t>-26,97; 611,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 485,27</t>
+          <t>-74,79; 515,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 1139,08</t>
+          <t>5,3; 1074,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 648,88</t>
+          <t>-51,34; 639,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,94; 559,85</t>
+          <t>-71,02; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 28,98</t>
+          <t>-15,82; 27,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 41,08</t>
+          <t>-12,77; 37,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 42,59</t>
+          <t>-4,36; 40,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 21,95</t>
+          <t>-9,24; 21,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 24,93</t>
+          <t>-13,97; 24,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 31,17</t>
+          <t>-10,36; 29,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 19,65</t>
+          <t>-7,04; 19,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 25,67</t>
+          <t>-8,44; 23,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 32,05</t>
+          <t>-0,07; 31,51</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 352,92</t>
+          <t>-53,73; 346,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 402,52</t>
+          <t>-53,85; 459,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 559,09</t>
+          <t>-18,15; 481,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 208,99</t>
+          <t>-39,5; 213,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 230,07</t>
+          <t>-57,47; 209,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 252,54</t>
+          <t>-44,12; 252,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 158,5</t>
+          <t>-29,01; 153,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 220,03</t>
+          <t>-34,86; 169,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 251,91</t>
+          <t>-1,48; 263,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 33,21</t>
+          <t>-34,31; 29,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 49,08</t>
+          <t>-25,6; 49,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 50,97</t>
+          <t>-13,0; 51,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 34,52</t>
+          <t>-9,77; 34,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 28,66</t>
+          <t>-13,11; 29,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 25,26</t>
+          <t>-15,04; 25,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 28,03</t>
+          <t>-9,42; 27,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 27,15</t>
+          <t>-7,98; 28,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 30,91</t>
+          <t>-2,32; 31,45</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,22; —</t>
+          <t>-52,45; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,09; —</t>
+          <t>-62,85; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,02; —</t>
+          <t>-57,41; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 702,66</t>
+          <t>-47,24; 740,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 663,88</t>
+          <t>-45,41; 695,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 925,92</t>
+          <t>-15,86; 742,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 34,02</t>
+          <t>-29,23; 33,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 40,91</t>
+          <t>-21,22; 39,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 50,93</t>
+          <t>-15,15; 51,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 8,83</t>
+          <t>-38,58; 11,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 28,71</t>
+          <t>-28,71; 29,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 24,77</t>
+          <t>-30,21; 27,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 10,27</t>
+          <t>-27,58; 11,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 24,42</t>
+          <t>-19,15; 23,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 27,8</t>
+          <t>-18,76; 26,61</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 56,18</t>
+          <t>-78,15; 75,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 157,16</t>
+          <t>-57,77; 172,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 145,58</t>
+          <t>-63,48; 155,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 69,44</t>
+          <t>-68,86; 69,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 157,9</t>
+          <t>-46,19; 137,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 190,79</t>
+          <t>-44,11; 167,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 69,38</t>
+          <t>-4,54; 61,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 70,47</t>
+          <t>-1,84; 70,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 69,94</t>
+          <t>-10,71; 70,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 47,5</t>
+          <t>0,02; 47,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 63,51</t>
+          <t>0,98; 63,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 27,5</t>
+          <t>-6,68; 26,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 46,46</t>
+          <t>6,03; 44,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 57,23</t>
+          <t>4,77; 57,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 35,29</t>
+          <t>-5,46; 35,1</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,34; —</t>
+          <t>-20,39; 905,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,51; 1178,87</t>
+          <t>-17,03; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 1043,14</t>
+          <t>-48,81; 1049,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,49; 1133,48</t>
+          <t>14,87; 943,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>21,11; 1077,72</t>
+          <t>2,93; 1486,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 887,48</t>
+          <t>-45,14; 777,99</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 35,42</t>
+          <t>-38,82; 39,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 36,29</t>
+          <t>-32,62; 35,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 18,0</t>
+          <t>-43,24; 18,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 17,5</t>
+          <t>-22,27; 16,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 35,86</t>
+          <t>-13,48; 32,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 14,34</t>
+          <t>-23,0; 12,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 18,42</t>
+          <t>-21,14; 17,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 28,19</t>
+          <t>-11,63; 27,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 11,76</t>
+          <t>-17,2; 11,88</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-79,57; 352,96</t>
+          <t>-79,14; 417,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,62; 341,13</t>
+          <t>-66,36; 355,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,51; 166,97</t>
+          <t>-69,84; 168,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 178,23</t>
+          <t>-82,96; 195,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 343,98</t>
+          <t>-51,54; 291,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 177,84</t>
+          <t>-77,45; 160,16</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 143,25</t>
+          <t>-66,02; 119,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 210,25</t>
+          <t>-37,89; 187,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 84,09</t>
+          <t>-52,84; 94,19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 19,71</t>
+          <t>-30,92; 19,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 23,01</t>
+          <t>-27,39; 23,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 8,41</t>
+          <t>-33,86; 9,27</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 14,16</t>
+          <t>-20,71; 12,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 12,96</t>
+          <t>-23,42; 10,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 14,09</t>
+          <t>-15,37; 16,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 8,7</t>
+          <t>-19,7; 7,02</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 10,27</t>
+          <t>-18,61; 11,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 8,06</t>
+          <t>-17,44; 8,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 90,27</t>
+          <t>-66,4; 84,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 100,64</t>
+          <t>-63,25; 94,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-67,58; 35,47</t>
+          <t>-69,94; 38,54</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-54,03; 67,81</t>
+          <t>-53,4; 58,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-60,61; 54,18</t>
+          <t>-63,32; 49,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 66,05</t>
+          <t>-39,7; 88,31</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-50,33; 34,59</t>
+          <t>-48,54; 31,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 37,31</t>
+          <t>-47,97; 43,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 34,0</t>
+          <t>-43,16; 32,41</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 11,89</t>
+          <t>-29,57; 9,91</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 28,11</t>
+          <t>-18,6; 27,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 30,51</t>
+          <t>-16,62; 29,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 22,73</t>
+          <t>-11,12; 22,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 17,4</t>
+          <t>-16,55; 15,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 13,22</t>
+          <t>-17,75; 11,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 13,28</t>
+          <t>-10,88; 14,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 16,07</t>
+          <t>-9,13; 16,89</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 15,4</t>
+          <t>-10,6; 14,47</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 106,76</t>
+          <t>-76,21; 83,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 218,81</t>
+          <t>-49,32; 188,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 249,68</t>
+          <t>-49,18; 229,7</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 200,54</t>
+          <t>-45,04; 196,36</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 183,59</t>
+          <t>-65,87; 132,93</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 113,85</t>
+          <t>-71,5; 106,3</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 91,96</t>
+          <t>-40,17; 101,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 106,87</t>
+          <t>-33,21; 113,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 103,65</t>
+          <t>-41,11; 96,4</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 12,69</t>
+          <t>-7,28; 13,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-2,81; 17,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,72</t>
+          <t>-2,99; 16,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,79</t>
+          <t>-2,49; 11,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-3,16; 11,06</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 10,29</t>
+          <t>-4,22; 9,37</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,68</t>
+          <t>-1,4; 9,97</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-1,01; 11,73</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 10,97</t>
+          <t>-0,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 59,09</t>
+          <t>-22,9; 62,52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 83,04</t>
+          <t>-9,03; 80,31</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 87,11</t>
+          <t>-9,7; 85,3</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 70,51</t>
+          <t>-10,01; 71,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 72,99</t>
+          <t>-14,03; 67,62</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 57,51</t>
+          <t>-17,79; 56,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 50,41</t>
+          <t>-5,22; 50,26</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 63,27</t>
+          <t>-3,63; 60,56</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 57,04</t>
+          <t>-3,45; 58,96</t>
         </is>
       </c>
     </row>
